--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1610343.799004998</v>
+        <v>1609665.617697465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183194</v>
+        <v>311885.1970183199</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>33.06238140451855</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428244</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>46.81399126346815</v>
       </c>
       <c r="W11" t="n">
-        <v>28.63460168737299</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>122.711166374057</v>
+        <v>71.44832726735117</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>42.27561102071568</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332428</v>
+        <v>20.73635203332431</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>43.01612417394768</v>
       </c>
       <c r="V12" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="W12" t="n">
-        <v>72.49301368962193</v>
+        <v>72.49301368962196</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208095</v>
+        <v>23.10134455208097</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663596</v>
+        <v>122.7111663740569</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278811</v>
+        <v>9.003274493278832</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393263</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521121</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269442</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706027</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194569</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085287</v>
+        <v>27.7078855208529</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677876</v>
+        <v>22.92970292677879</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="H14" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.9382543139093</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.20762267428242</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.93811835407752</v>
       </c>
       <c r="V14" t="n">
-        <v>108.0839953422694</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.711166374057</v>
+        <v>97.50398992896066</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>42.27561102071537</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332434</v>
+        <v>20.73635203332428</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394771</v>
+        <v>43.01612417394765</v>
       </c>
       <c r="V15" t="n">
-        <v>122.711166374057</v>
+        <v>46.43735102801259</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962199</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="X15" t="n">
-        <v>23.101344552081</v>
+        <v>23.10134455208095</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663601</v>
+        <v>122.7111663740569</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278868</v>
+        <v>9.003274493278804</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393266</v>
+        <v>41.14309824393261</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521124</v>
+        <v>29.52954681521118</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269445</v>
+        <v>94.44472612269439</v>
       </c>
       <c r="V16" t="n">
-        <v>50.8974452970603</v>
+        <v>50.89744529706024</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194572</v>
+        <v>96.09913720194567</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085293</v>
+        <v>27.70788552085287</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677882</v>
+        <v>22.92970292677876</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>98.18116457427357</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653641</v>
+        <v>26.26582637653706</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="C18" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>108.0839953422694</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>122.711166374057</v>
+        <v>108.0839953422692</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924068</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258617</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363464</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304351</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142083</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427357</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653706</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605593694</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717424</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611348</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985724</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>101.9429845537781</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491251</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>101.942984553778</v>
       </c>
       <c r="V21" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924068</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258617</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363464</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304351</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142083</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427357</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653706</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605593694</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717424</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611348</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985724</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491251</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>101.942984553778</v>
       </c>
       <c r="U24" t="n">
-        <v>117.4872185223617</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
     </row>
     <row r="25">
@@ -2561,10 +2561,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G26" t="n">
         <v>205.9069232565836</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148492</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562559</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389476</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U26" t="n">
-        <v>37.22910417518457</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V26" t="n">
         <v>107.9591995428694</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>10.85022898939886</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T27" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505471</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W27" t="n">
-        <v>262.2600326379724</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373188003</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774301</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503966</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V28" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959926</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885816</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1666563115506</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2849133148961</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D29" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953536</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737309</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9069232565835</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H29" t="n">
-        <v>133.991585058847</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.3533672256255</v>
+        <v>14.35336722562559</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389389</v>
+        <v>9.498608495389474</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518449</v>
+        <v>37.22910417518457</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9591995428693</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8621302284234</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>47.02031865801551</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>42.39367231980692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
-        <v>2.027337854431253</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U30" t="n">
-        <v>24.30710999505462</v>
+        <v>24.30710999505471</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911956</v>
+        <v>27.72833684911964</v>
       </c>
       <c r="W30" t="n">
-        <v>53.7839995107289</v>
+        <v>53.78399951072899</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.392330373188003</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774293</v>
+        <v>10.46370206774301</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503958</v>
+        <v>22.43408406503966</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631815</v>
+        <v>10.82053263631824</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380136</v>
+        <v>75.73571194380145</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816722</v>
+        <v>32.1884311181673</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305264</v>
+        <v>77.39012302305272</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959841</v>
+        <v>8.998871341959926</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885731</v>
+        <v>4.220688747885816</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>124.8515755759446</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953534</v>
       </c>
       <c r="F32" t="n">
         <v>190.2786655737308</v>
@@ -3047,7 +3047,7 @@
         <v>133.991585058847</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3533672256255</v>
+        <v>14.35336722562548</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389391</v>
+        <v>9.498608495389362</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518449</v>
+        <v>37.22910417518446</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428693</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>58.08425200437314</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431253</v>
+        <v>2.027337854431225</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505462</v>
+        <v>24.3071099950546</v>
       </c>
       <c r="V33" t="n">
-        <v>27.72833684911956</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.7839995107289</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187917</v>
+        <v>4.392330373187889</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>212.7987244064957</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503958</v>
+        <v>22.43408406503955</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631815</v>
+        <v>10.82053263631812</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380136</v>
+        <v>75.73571194380133</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816722</v>
+        <v>32.18843111816719</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305264</v>
+        <v>77.39012302305261</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959841</v>
+        <v>8.998871341959813</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885731</v>
+        <v>4.220688747885703</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522866</v>
+        <v>1.838477452522881</v>
       </c>
       <c r="V35" t="n">
         <v>72.56857282020772</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>122.3960061869502</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.3933727880673</v>
+        <v>77.96924984599649</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522866</v>
+        <v>1.838477452522881</v>
       </c>
       <c r="V38" t="n">
         <v>72.56857282020772</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319846</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>24.40122597086144</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>18.3933727880673</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>111.2022304460913</v>
       </c>
     </row>
     <row r="40">
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>140.9516838899172</v>
       </c>
       <c r="T42" t="n">
         <v>214.947921920714</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05033877763474948</v>
       </c>
       <c r="W42" t="n">
-        <v>78.03888893993275</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.2128718361118</v>
+        <v>143.9003935633365</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05033877763474948</v>
       </c>
       <c r="W45" t="n">
-        <v>26.1060014392441</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304.5738074498154</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C11" t="n">
-        <v>304.5738074498154</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D11" t="n">
-        <v>304.5738074498154</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E11" t="n">
-        <v>180.6231343447073</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F11" t="n">
-        <v>180.6231343447073</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J11" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K11" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="L11" t="n">
-        <v>131.300948020241</v>
+        <v>58.20402256113625</v>
       </c>
       <c r="M11" t="n">
-        <v>214.0169121984041</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N11" t="n">
-        <v>333.3609061815166</v>
+        <v>262.4040414496158</v>
       </c>
       <c r="O11" t="n">
-        <v>369.3606107859117</v>
+        <v>298.4037460540109</v>
       </c>
       <c r="P11" t="n">
-        <v>490.8446654962281</v>
+        <v>419.8878007643272</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="S11" t="n">
-        <v>457.4483206431791</v>
+        <v>457.4483206431785</v>
       </c>
       <c r="T11" t="n">
-        <v>457.4483206431791</v>
+        <v>428.9557724873376</v>
       </c>
       <c r="U11" t="n">
-        <v>457.4483206431791</v>
+        <v>428.9557724873376</v>
       </c>
       <c r="V11" t="n">
-        <v>457.4483206431791</v>
+        <v>381.6689126252485</v>
       </c>
       <c r="W11" t="n">
-        <v>428.5244805549236</v>
+        <v>257.7182395201405</v>
       </c>
       <c r="X11" t="n">
-        <v>428.5244805549236</v>
+        <v>257.7182395201405</v>
       </c>
       <c r="Y11" t="n">
-        <v>428.5244805549236</v>
+        <v>133.7675664150325</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.470203809695</v>
+        <v>81.98692085270352</v>
       </c>
       <c r="C12" t="n">
-        <v>52.51953070458687</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D12" t="n">
-        <v>52.51953070458687</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E12" t="n">
-        <v>52.51953070458687</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F12" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G12" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H12" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K12" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2520893996963</v>
+        <v>163.1726257573489</v>
       </c>
       <c r="M12" t="n">
-        <v>288.7361441100128</v>
+        <v>284.6566804676652</v>
       </c>
       <c r="N12" t="n">
-        <v>410.2201988203292</v>
+        <v>406.1407351779815</v>
       </c>
       <c r="O12" t="n">
-        <v>410.2201988203292</v>
+        <v>406.1407351779815</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="R12" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="S12" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="T12" t="n">
-        <v>469.8988553615571</v>
+        <v>469.8988553615565</v>
       </c>
       <c r="U12" t="n">
-        <v>426.4482248828222</v>
+        <v>426.4482248828214</v>
       </c>
       <c r="V12" t="n">
-        <v>302.497551777714</v>
+        <v>302.4975517777135</v>
       </c>
       <c r="W12" t="n">
-        <v>229.2722854245606</v>
+        <v>229.27228542456</v>
       </c>
       <c r="X12" t="n">
-        <v>205.9375939578121</v>
+        <v>205.9375939578115</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.470203809695</v>
+        <v>81.98692085270352</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.24559604012191</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C13" t="n">
-        <v>26.24559604012191</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D13" t="n">
-        <v>26.24559604012191</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E13" t="n">
-        <v>26.24559604012191</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F13" t="n">
-        <v>26.24559604012191</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G13" t="n">
-        <v>26.24559604012191</v>
+        <v>35.07731671699965</v>
       </c>
       <c r="H13" t="n">
-        <v>54.39100742068703</v>
+        <v>35.07731671699965</v>
       </c>
       <c r="I13" t="n">
-        <v>83.59845958032227</v>
+        <v>35.07731671699965</v>
       </c>
       <c r="J13" t="n">
-        <v>83.59845958032227</v>
+        <v>35.07731671699965</v>
       </c>
       <c r="K13" t="n">
-        <v>83.59845958032227</v>
+        <v>35.07731671699965</v>
       </c>
       <c r="L13" t="n">
-        <v>83.59845958032227</v>
+        <v>156.5613714273159</v>
       </c>
       <c r="M13" t="n">
-        <v>205.0825142906387</v>
+        <v>263.8427543791585</v>
       </c>
       <c r="N13" t="n">
-        <v>205.0825142906387</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="O13" t="n">
-        <v>205.0825142906387</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="P13" t="n">
-        <v>326.5665690009552</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="R13" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295972</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347158</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688459</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135989</v>
+        <v>209.447369013599</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074774</v>
+        <v>158.0358081074775</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995651</v>
+        <v>60.96597254995656</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757987</v>
+        <v>32.9782093975799</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>257.7182395201408</v>
+        <v>257.7182395201405</v>
       </c>
       <c r="C14" t="n">
-        <v>257.7182395201408</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="D14" t="n">
-        <v>257.7182395201408</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="E14" t="n">
-        <v>257.7182395201408</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="F14" t="n">
-        <v>133.7675664150327</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="G14" t="n">
-        <v>133.7675664150327</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J14" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K14" t="n">
-        <v>9.816893309924563</v>
+        <v>131.3009480202408</v>
       </c>
       <c r="L14" t="n">
-        <v>87.94863295898261</v>
+        <v>252.7850027305572</v>
       </c>
       <c r="M14" t="n">
-        <v>170.6645971371457</v>
+        <v>374.2690574408734</v>
       </c>
       <c r="N14" t="n">
-        <v>247.8765560755952</v>
+        <v>451.481016379323</v>
       </c>
       <c r="O14" t="n">
-        <v>369.3606107859117</v>
+        <v>487.4807209837181</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="S14" t="n">
-        <v>490.8446654962281</v>
+        <v>466.6646106336929</v>
       </c>
       <c r="T14" t="n">
-        <v>490.8446654962281</v>
+        <v>438.172062477852</v>
       </c>
       <c r="U14" t="n">
-        <v>490.8446654962281</v>
+        <v>381.6689126252484</v>
       </c>
       <c r="V14" t="n">
-        <v>381.6689126252489</v>
+        <v>381.6689126252484</v>
       </c>
       <c r="W14" t="n">
-        <v>381.6689126252489</v>
+        <v>381.6689126252484</v>
       </c>
       <c r="X14" t="n">
-        <v>381.6689126252489</v>
+        <v>381.6689126252484</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.7182395201408</v>
+        <v>381.6689126252484</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H15" t="n">
-        <v>52.51953070458656</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K15" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2520893996963</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M15" t="n">
-        <v>288.7361441100128</v>
+        <v>288.7361441100127</v>
       </c>
       <c r="N15" t="n">
-        <v>406.1407351779821</v>
+        <v>369.3606107859112</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779821</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="Q15" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="R15" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="S15" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="T15" t="n">
-        <v>469.8988553615571</v>
+        <v>469.8988553615565</v>
       </c>
       <c r="U15" t="n">
-        <v>426.448224882822</v>
+        <v>426.4482248828215</v>
       </c>
       <c r="V15" t="n">
-        <v>302.4975517777139</v>
+        <v>379.5418097030108</v>
       </c>
       <c r="W15" t="n">
-        <v>229.2722854245604</v>
+        <v>255.5911365979028</v>
       </c>
       <c r="X15" t="n">
-        <v>205.9375939578119</v>
+        <v>232.2564451311544</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.4702038096947</v>
+        <v>108.3057720260464</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C16" t="n">
-        <v>37.29373833618764</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D16" t="n">
-        <v>37.29373833618764</v>
+        <v>58.35552375023671</v>
       </c>
       <c r="E16" t="n">
-        <v>37.29373833618764</v>
+        <v>58.35552375023671</v>
       </c>
       <c r="F16" t="n">
-        <v>37.29373833618764</v>
+        <v>113.0873645424903</v>
       </c>
       <c r="G16" t="n">
-        <v>37.29373833618764</v>
+        <v>113.0873645424903</v>
       </c>
       <c r="H16" t="n">
-        <v>65.43914971675271</v>
+        <v>113.0873645424903</v>
       </c>
       <c r="I16" t="n">
-        <v>65.43914971675271</v>
+        <v>113.0873645424903</v>
       </c>
       <c r="J16" t="n">
-        <v>65.43914971675271</v>
+        <v>113.0873645424903</v>
       </c>
       <c r="K16" t="n">
-        <v>65.43914971675271</v>
+        <v>234.5714192528066</v>
       </c>
       <c r="L16" t="n">
-        <v>65.43914971675271</v>
+        <v>356.0554739631229</v>
       </c>
       <c r="M16" t="n">
-        <v>65.43914971675271</v>
+        <v>356.0554739631229</v>
       </c>
       <c r="N16" t="n">
-        <v>142.3586996688421</v>
+        <v>356.0554739631229</v>
       </c>
       <c r="O16" t="n">
-        <v>263.8427543791586</v>
+        <v>356.0554739631229</v>
       </c>
       <c r="P16" t="n">
-        <v>385.326809089475</v>
+        <v>356.0554739631229</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.326809089475</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295974</v>
+        <v>376.232592429597</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347159</v>
+        <v>334.6739073347156</v>
       </c>
       <c r="T16" t="n">
-        <v>304.846082268846</v>
+        <v>304.8460822688457</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135991</v>
+        <v>209.4473690135989</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074775</v>
+        <v>158.0358081074774</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995662</v>
+        <v>60.9659725499565</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757993</v>
+        <v>32.97820939757987</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154752</v>
+        <v>317.4102657154749</v>
       </c>
       <c r="C17" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633678</v>
       </c>
       <c r="D17" t="n">
         <v>270.2537288203027</v>
@@ -5501,64 +5501,64 @@
         <v>218.9076992111679</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733693</v>
+        <v>135.520924573369</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400174</v>
+        <v>36.34803106400239</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924563</v>
+        <v>56.84636229683895</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924563</v>
+        <v>56.84636229683895</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924563</v>
+        <v>56.84636229683895</v>
       </c>
       <c r="L17" t="n">
-        <v>58.20402256113621</v>
+        <v>105.2334915480507</v>
       </c>
       <c r="M17" t="n">
-        <v>140.9199867392993</v>
+        <v>187.9494557262138</v>
       </c>
       <c r="N17" t="n">
-        <v>262.4040414496158</v>
+        <v>265.1614146646634</v>
       </c>
       <c r="O17" t="n">
-        <v>298.4037460540109</v>
+        <v>301.1611192690585</v>
       </c>
       <c r="P17" t="n">
-        <v>393.5997868111767</v>
+        <v>301.1611192690585</v>
       </c>
       <c r="Q17" t="n">
-        <v>393.5997868111767</v>
+        <v>301.1611192690585</v>
       </c>
       <c r="R17" t="n">
-        <v>393.5997868111767</v>
+        <v>301.1611192690585</v>
       </c>
       <c r="S17" t="n">
-        <v>393.5997868111767</v>
+        <v>393.5997868111762</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471782</v>
+        <v>490.6088666471774</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227598</v>
+        <v>473.1845019227591</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923421</v>
+        <v>433.6528134923415</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.390970391476</v>
+        <v>371.3909703914755</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>242.9433192860118</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C18" t="n">
-        <v>118.9926461809037</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K18" t="n">
-        <v>48.6924984314919</v>
+        <v>44.61303478914442</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2520893996963</v>
+        <v>163.1726257573489</v>
       </c>
       <c r="M18" t="n">
-        <v>288.7361441100128</v>
+        <v>284.6566804676652</v>
       </c>
       <c r="N18" t="n">
-        <v>406.1407351779821</v>
+        <v>406.1407351779815</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779821</v>
+        <v>406.1407351779815</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="Q18" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="R18" t="n">
-        <v>490.8446654962281</v>
+        <v>366.8939923911195</v>
       </c>
       <c r="S18" t="n">
-        <v>490.8446654962281</v>
+        <v>366.8939923911195</v>
       </c>
       <c r="T18" t="n">
-        <v>366.89399239112</v>
+        <v>257.7182395201405</v>
       </c>
       <c r="U18" t="n">
-        <v>366.89399239112</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="V18" t="n">
-        <v>366.89399239112</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="W18" t="n">
-        <v>366.89399239112</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="X18" t="n">
-        <v>366.89399239112</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="Y18" t="n">
-        <v>366.89399239112</v>
+        <v>133.7675664150325</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154758</v>
+        <v>317.4102657154752</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633686</v>
+        <v>287.552533763368</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203033</v>
+        <v>270.2537288203027</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111684</v>
+        <v>218.9076992111679</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733695</v>
+        <v>135.5209245733691</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400241</v>
+        <v>36.34803106400233</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I20" t="n">
-        <v>89.06417631464144</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J20" t="n">
-        <v>89.06417631464144</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K20" t="n">
-        <v>89.06417631464144</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="L20" t="n">
-        <v>210.5482310249579</v>
+        <v>58.20402256113625</v>
       </c>
       <c r="M20" t="n">
-        <v>293.264195203121</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N20" t="n">
-        <v>370.4761541415705</v>
+        <v>218.131945677749</v>
       </c>
       <c r="O20" t="n">
-        <v>406.4758587459656</v>
+        <v>254.1316502821442</v>
       </c>
       <c r="P20" t="n">
-        <v>490.8446654962281</v>
+        <v>254.1316502821442</v>
       </c>
       <c r="Q20" t="n">
-        <v>490.8446654962281</v>
+        <v>375.6157049924605</v>
       </c>
       <c r="R20" t="n">
-        <v>490.8446654962281</v>
+        <v>375.6157049924605</v>
       </c>
       <c r="S20" t="n">
-        <v>490.8446654962281</v>
+        <v>375.6157049924605</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962281</v>
+        <v>421.0529775341732</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471782</v>
+        <v>490.6088666471776</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227599</v>
+        <v>473.1845019227593</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923423</v>
+        <v>433.6528134923417</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914764</v>
+        <v>371.3909703914758</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.7896049804075</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C21" t="n">
-        <v>112.7896049804075</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924563</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="L21" t="n">
-        <v>128.376484278129</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="M21" t="n">
-        <v>249.8605389884455</v>
+        <v>170.1765531418082</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676656</v>
+        <v>284.6566804676652</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779821</v>
+        <v>406.1407351779815</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962275</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.6416242957319</v>
+        <v>484.6416242957313</v>
       </c>
       <c r="R21" t="n">
-        <v>484.6416242957319</v>
+        <v>360.6909511906233</v>
       </c>
       <c r="S21" t="n">
-        <v>484.6416242957319</v>
+        <v>236.7402780855153</v>
       </c>
       <c r="T21" t="n">
-        <v>484.6416242957319</v>
+        <v>236.7402780855153</v>
       </c>
       <c r="U21" t="n">
-        <v>484.6416242957319</v>
+        <v>133.7675664150325</v>
       </c>
       <c r="V21" t="n">
-        <v>360.6909511906238</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="W21" t="n">
-        <v>360.6909511906238</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="X21" t="n">
-        <v>236.7402780855156</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="Y21" t="n">
-        <v>236.7402780855156</v>
+        <v>9.81689330992455</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924563</v>
+        <v>9.81689330992455</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154756</v>
+        <v>317.4102657154754</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633684</v>
+        <v>287.5525337633682</v>
       </c>
       <c r="D23" t="n">
-        <v>270.253728820303</v>
+        <v>270.2537288203029</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111682</v>
+        <v>218.9076992111681</v>
       </c>
       <c r="F23" t="n">
         <v>135.5209245733693</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400241</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K23" t="n">
-        <v>131.300948020241</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L23" t="n">
-        <v>202.4783702331028</v>
+        <v>58.20402256113625</v>
       </c>
       <c r="M23" t="n">
-        <v>285.1943344112659</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N23" t="n">
-        <v>362.4062933497154</v>
+        <v>262.4040414496158</v>
       </c>
       <c r="O23" t="n">
-        <v>398.4059979541105</v>
+        <v>298.4037460540109</v>
       </c>
       <c r="P23" t="n">
-        <v>398.4059979541105</v>
+        <v>298.4037460540109</v>
       </c>
       <c r="Q23" t="n">
-        <v>398.4059979541105</v>
+        <v>419.8878007643273</v>
       </c>
       <c r="R23" t="n">
-        <v>398.4059979541105</v>
+        <v>419.8878007643273</v>
       </c>
       <c r="S23" t="n">
-        <v>490.8446654962281</v>
+        <v>419.8878007643273</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962281</v>
+        <v>421.0529775341734</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471782</v>
+        <v>490.6088666471777</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227598</v>
+        <v>473.1845019227594</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923421</v>
+        <v>433.6528134923418</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914762</v>
+        <v>371.390970391476</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>242.0169930872281</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C24" t="n">
-        <v>242.0169930872281</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D24" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E24" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F24" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G24" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H24" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924563</v>
+        <v>48.69249843149193</v>
       </c>
       <c r="L24" t="n">
-        <v>128.376484278129</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M24" t="n">
-        <v>249.8605389884455</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="N24" t="n">
-        <v>369.3606107859117</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="O24" t="n">
-        <v>490.8446654962281</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962281</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.6416242957319</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="R24" t="n">
-        <v>484.6416242957319</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="S24" t="n">
-        <v>484.6416242957319</v>
+        <v>360.6909511906234</v>
       </c>
       <c r="T24" t="n">
-        <v>484.6416242957319</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="U24" t="n">
-        <v>365.9676661923363</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="V24" t="n">
-        <v>365.9676661923363</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="W24" t="n">
-        <v>242.0169930872281</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="X24" t="n">
-        <v>242.0169930872281</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.0169930872281</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924563</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>599.5642824986439</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019461</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336798</v>
+        <v>199.37681903368</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0317836207029</v>
+        <v>64.03178362070285</v>
       </c>
       <c r="I26" t="n">
         <v>36.07420981112215</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778254</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K26" t="n">
         <v>377.2225660613049</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381363</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419193</v>
       </c>
       <c r="N26" t="n">
         <v>1217.911753105988</v>
@@ -6245,10 +6245,10 @@
         <v>1662.071556543467</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S26" t="n">
         <v>1789.212139823152</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.07420981112215</v>
+        <v>47.0340370731412</v>
       </c>
       <c r="C27" t="n">
         <v>36.07420981112215</v>
@@ -6306,49 +6306,49 @@
         <v>36.07420981112215</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268949</v>
+        <v>74.94981493268952</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5094059008939</v>
+        <v>193.509405900894</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836085</v>
+        <v>376.6175206836086</v>
       </c>
       <c r="N27" t="n">
-        <v>582.9918519763008</v>
+        <v>582.9918519763009</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0369642505271</v>
+        <v>716.0369642505273</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7408945687731</v>
+        <v>800.7408945687733</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7408945687731</v>
+        <v>794.5378533682772</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7408945687731</v>
+        <v>794.5378533682772</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7408945687731</v>
+        <v>601.1188701871117</v>
       </c>
       <c r="T27" t="n">
-        <v>583.6217815175469</v>
+        <v>383.9997571358855</v>
       </c>
       <c r="U27" t="n">
-        <v>559.0691451589057</v>
+        <v>144.3758237405953</v>
       </c>
       <c r="V27" t="n">
-        <v>315.9894270625398</v>
+        <v>116.3674026808785</v>
       </c>
       <c r="W27" t="n">
-        <v>51.08030318579995</v>
+        <v>62.04013044781894</v>
       </c>
       <c r="X27" t="n">
-        <v>46.6436058391454</v>
+        <v>57.60343310116442</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.07420981112215</v>
+        <v>47.0340370731412</v>
       </c>
     </row>
     <row r="28">
@@ -6382,49 +6382,49 @@
         <v>36.07420981112215</v>
       </c>
       <c r="J28" t="n">
-        <v>107.1248568666255</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K28" t="n">
-        <v>107.1248568666255</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="L28" t="n">
-        <v>107.1248568666255</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="M28" t="n">
-        <v>107.1248568666255</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="N28" t="n">
-        <v>107.1248568666255</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="O28" t="n">
-        <v>107.1248568666255</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="P28" t="n">
-        <v>260.5952678013794</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.5952678013794</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695739</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344209</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096634</v>
+        <v>49.42730081096627</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868358</v>
+        <v>40.33753177868355</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07420981112215</v>
@@ -6440,40 +6440,40 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686416</v>
+        <v>885.8369123686413</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666774</v>
+        <v>759.7242097666769</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986435</v>
+        <v>599.564282498643</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019458</v>
+        <v>407.3636102019452</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336796</v>
+        <v>199.3768190336798</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0317836207028</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I29" t="n">
         <v>36.07420981112215</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778245</v>
+        <v>171.7479657778251</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613042</v>
+        <v>377.2225660613047</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381357</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419187</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O29" t="n">
         <v>1464.702835936003</v>
@@ -6482,10 +6482,10 @@
         <v>1662.071556543467</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S29" t="n">
         <v>1789.212139823152</v>
@@ -6497,7 +6497,7 @@
         <v>1742.012430054896</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546946</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
         <v>1506.724471163629</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>268.3083753102866</v>
+        <v>83.56948118285499</v>
       </c>
       <c r="C30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I30" t="n">
-        <v>78.89610104325035</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J30" t="n">
         <v>36.07420981112215</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L30" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M30" t="n">
         <v>376.6175206836086</v>
@@ -6561,31 +6561,31 @@
         <v>800.7408945687732</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="S30" t="n">
-        <v>607.3219113876078</v>
+        <v>601.1188701871116</v>
       </c>
       <c r="T30" t="n">
-        <v>605.2740953730307</v>
+        <v>383.9997571358854</v>
       </c>
       <c r="U30" t="n">
-        <v>580.7214590143897</v>
+        <v>359.4471207772443</v>
       </c>
       <c r="V30" t="n">
-        <v>552.7130379546729</v>
+        <v>331.4386997175275</v>
       </c>
       <c r="W30" t="n">
-        <v>498.3857657216134</v>
+        <v>277.1114274844679</v>
       </c>
       <c r="X30" t="n">
-        <v>278.8777713383098</v>
+        <v>272.6747301378133</v>
       </c>
       <c r="Y30" t="n">
-        <v>268.3083753102866</v>
+        <v>262.1053341097901</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>36.07420981112215</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07420981112215</v>
+        <v>82.07297887448929</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07420981112215</v>
+        <v>227.0549599123758</v>
       </c>
       <c r="L31" t="n">
-        <v>36.07420981112215</v>
+        <v>227.0549599123758</v>
       </c>
       <c r="M31" t="n">
-        <v>116.7335391553829</v>
+        <v>227.0549599123758</v>
       </c>
       <c r="N31" t="n">
-        <v>116.7335391553829</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="O31" t="n">
-        <v>116.7335391553829</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153494</v>
+        <v>247.5432591153499</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695735</v>
+        <v>236.6134281695739</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344206</v>
+        <v>160.1127090344209</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483931</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096617</v>
+        <v>49.42730081096633</v>
       </c>
       <c r="X31" t="n">
-        <v>40.3375317786835</v>
+        <v>40.33753177868358</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07420981112215</v>
@@ -6677,7 +6677,7 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686421</v>
+        <v>885.8369123686419</v>
       </c>
       <c r="D32" t="n">
         <v>759.7242097666777</v>
@@ -6686,13 +6686,13 @@
         <v>599.5642824986439</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019462</v>
+        <v>407.3636102019457</v>
       </c>
       <c r="G32" t="n">
-        <v>199.37681903368</v>
+        <v>199.3768190336796</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0317836207028</v>
+        <v>64.03178362070275</v>
       </c>
       <c r="I32" t="n">
         <v>36.07420981112215</v>
@@ -6713,16 +6713,16 @@
         <v>1217.911753105989</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936002</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R32" t="n">
-        <v>1803.710490556108</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S32" t="n">
         <v>1789.212139823152</v>
@@ -6737,7 +6737,7 @@
         <v>1632.962733546947</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.724471163629</v>
+        <v>1506.72447116363</v>
       </c>
       <c r="X32" t="n">
         <v>1358.378885074313</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>268.3083753102866</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C33" t="n">
-        <v>209.6374136897077</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D33" t="n">
-        <v>209.6374136897077</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E33" t="n">
         <v>36.07420981112215</v>
@@ -6780,10 +6780,10 @@
         <v>36.07420981112215</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L33" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M33" t="n">
         <v>376.6175206836086</v>
@@ -6798,31 +6798,31 @@
         <v>800.7408945687732</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="S33" t="n">
-        <v>607.3219113876078</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="T33" t="n">
-        <v>605.2740953730307</v>
+        <v>792.4900373537</v>
       </c>
       <c r="U33" t="n">
-        <v>580.7214590143897</v>
+        <v>767.937400995059</v>
       </c>
       <c r="V33" t="n">
-        <v>552.7130379546729</v>
+        <v>524.857682898693</v>
       </c>
       <c r="W33" t="n">
-        <v>498.3857657216134</v>
+        <v>255.4591136289844</v>
       </c>
       <c r="X33" t="n">
-        <v>493.949068374959</v>
+        <v>251.0224162823299</v>
       </c>
       <c r="Y33" t="n">
-        <v>268.3083753102866</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="34">
@@ -6865,40 +6865,40 @@
         <v>36.07420981112215</v>
       </c>
       <c r="M34" t="n">
-        <v>36.07420981112215</v>
+        <v>222.6433429629304</v>
       </c>
       <c r="N34" t="n">
-        <v>231.2354300709689</v>
+        <v>260.5952678013784</v>
       </c>
       <c r="O34" t="n">
-        <v>231.2354300709689</v>
+        <v>260.5952678013784</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013784</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013784</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153494</v>
+        <v>247.5432591153492</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695735</v>
+        <v>236.6134281695733</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344206</v>
+        <v>160.1127090344204</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483931</v>
+        <v>127.599142248393</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096617</v>
+        <v>49.4273008109661</v>
       </c>
       <c r="X34" t="n">
-        <v>40.3375317786835</v>
+        <v>40.33753177868346</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07420981112215</v>
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561324</v>
+        <v>772.2454280561333</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457944</v>
+        <v>669.3219062457952</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444984</v>
+        <v>578.9573114444992</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771329</v>
+        <v>454.5454919771337</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811034</v>
+        <v>298.0929274811042</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586259</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J35" t="n">
-        <v>132.7770547391406</v>
+        <v>54.02923558809553</v>
       </c>
       <c r="K35" t="n">
-        <v>132.7770547391406</v>
+        <v>294.5405563270102</v>
       </c>
       <c r="L35" t="n">
-        <v>181.1641839903522</v>
+        <v>342.9276855782218</v>
       </c>
       <c r="M35" t="n">
-        <v>263.8801481685154</v>
+        <v>667.8619772805421</v>
       </c>
       <c r="N35" t="n">
-        <v>586.9202057880198</v>
+        <v>745.0739362189915</v>
       </c>
       <c r="O35" t="n">
-        <v>868.7480090734698</v>
+        <v>1026.901739504442</v>
       </c>
       <c r="P35" t="n">
-        <v>1101.153450136369</v>
+        <v>1259.307180567341</v>
       </c>
       <c r="Q35" t="n">
         <v>1259.307180567341</v>
@@ -6968,19 +6968,19 @@
         <v>1312.86582505988</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.008777128038</v>
+        <v>1311.008777128039</v>
       </c>
       <c r="V35" t="n">
         <v>1237.707188420758</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.217033838109</v>
+        <v>1147.21703383811</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.61955554946</v>
+        <v>1034.619555549461</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903637</v>
+        <v>899.2919225903646</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>339.3019202500017</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="C36" t="n">
-        <v>149.8896459829654</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D36" t="n">
-        <v>149.8896459829654</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E36" t="n">
-        <v>149.8896459829654</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F36" t="n">
-        <v>149.8896459829654</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G36" t="n">
-        <v>149.8896459829654</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H36" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I36" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276494</v>
+        <v>65.13292162276495</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>790.9240012588486</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="R36" t="n">
-        <v>790.9240012588486</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="S36" t="n">
-        <v>597.5050180776832</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="T36" t="n">
-        <v>597.5050180776832</v>
+        <v>567.6018470071263</v>
       </c>
       <c r="U36" t="n">
-        <v>357.881084682393</v>
+        <v>567.6018470071263</v>
       </c>
       <c r="V36" t="n">
-        <v>357.881084682393</v>
+        <v>324.5221289107603</v>
       </c>
       <c r="W36" t="n">
-        <v>339.3019202500017</v>
+        <v>245.7653108845012</v>
       </c>
       <c r="X36" t="n">
-        <v>339.3019202500017</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.3019202500017</v>
+        <v>26.2573165011976</v>
       </c>
     </row>
     <row r="37">
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="C37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="M37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="N37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="O37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.606684241395</v>
       </c>
       <c r="P37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.606684241395</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.606684241395</v>
       </c>
       <c r="R37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.606684241395</v>
       </c>
       <c r="S37" t="n">
         <v>109.4336614724408</v>
@@ -7132,13 +7132,13 @@
         <v>68.68105013795622</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>125.8542441135061</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I38" t="n">
-        <v>26.25731650119759</v>
+        <v>33.8928188658626</v>
       </c>
       <c r="J38" t="n">
-        <v>29.59257752913177</v>
+        <v>33.8928188658626</v>
       </c>
       <c r="K38" t="n">
-        <v>270.1038982680464</v>
+        <v>274.4041396047772</v>
       </c>
       <c r="L38" t="n">
-        <v>564.3191262003129</v>
+        <v>568.6193675370437</v>
       </c>
       <c r="M38" t="n">
-        <v>647.0350903784761</v>
+        <v>762.6350050760994</v>
       </c>
       <c r="N38" t="n">
-        <v>724.2470493169255</v>
+        <v>839.8469640145489</v>
       </c>
       <c r="O38" t="n">
-        <v>1006.074852602376</v>
+        <v>875.846668618944</v>
       </c>
       <c r="P38" t="n">
-        <v>1238.480293665275</v>
+        <v>1108.252109681843</v>
       </c>
       <c r="Q38" t="n">
-        <v>1238.480293665275</v>
+        <v>1266.405840112815</v>
       </c>
       <c r="R38" t="n">
-        <v>1292.038938157814</v>
+        <v>1266.405840112815</v>
       </c>
       <c r="S38" t="n">
-        <v>1312.86582505988</v>
+        <v>1287.23272701488</v>
       </c>
       <c r="T38" t="n">
         <v>1312.86582505988</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.71794266604452</v>
+        <v>199.8205203797831</v>
       </c>
       <c r="C39" t="n">
-        <v>78.71794266604452</v>
+        <v>199.8205203797831</v>
       </c>
       <c r="D39" t="n">
-        <v>78.71794266604452</v>
+        <v>199.8205203797831</v>
       </c>
       <c r="E39" t="n">
-        <v>78.71794266604452</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F39" t="n">
-        <v>78.71794266604452</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G39" t="n">
-        <v>78.71794266604452</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H39" t="n">
-        <v>78.71794266604452</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I39" t="n">
-        <v>78.71794266604452</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276494</v>
+        <v>65.13292162276495</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7275,28 +7275,28 @@
         <v>790.9240012588486</v>
       </c>
       <c r="R39" t="n">
-        <v>766.2762982579785</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="S39" t="n">
-        <v>766.2762982579785</v>
+        <v>790.9240012588486</v>
       </c>
       <c r="T39" t="n">
-        <v>766.2762982579785</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="U39" t="n">
-        <v>526.6523648626883</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="V39" t="n">
-        <v>526.6523648626883</v>
+        <v>330.7251701112565</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2537955929796</v>
+        <v>312.1460056788653</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2537955929796</v>
+        <v>312.1460056788653</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.2537955929796</v>
+        <v>199.8205203797831</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="C40" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D40" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E40" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F40" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G40" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H40" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I40" t="n">
-        <v>109.4336614724408</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J40" t="n">
         <v>109.4336614724408</v>
@@ -7369,13 +7369,13 @@
         <v>68.68105013795622</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.25731650119759</v>
+        <v>26.2573165011976</v>
       </c>
     </row>
     <row r="41">
@@ -7415,28 +7415,28 @@
         <v>261.0410207508156</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6207463184171</v>
+        <v>309.4281500020273</v>
       </c>
       <c r="M41" t="n">
-        <v>772.7401205248018</v>
+        <v>630.3367104965803</v>
       </c>
       <c r="N41" t="n">
-        <v>1088.144675779641</v>
+        <v>707.5486694350298</v>
       </c>
       <c r="O41" t="n">
-        <v>1362.336976700426</v>
+        <v>981.7409703558146</v>
       </c>
       <c r="P41" t="n">
-        <v>1362.336976700426</v>
+        <v>1180.629768416385</v>
       </c>
       <c r="Q41" t="n">
-        <v>1362.336976700426</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.2601188283</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
@@ -7512,25 +7512,25 @@
         <v>792.8318871342171</v>
       </c>
       <c r="R42" t="n">
-        <v>792.8318871342171</v>
+        <v>657.1091702202807</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8318871342171</v>
+        <v>514.733731947637</v>
       </c>
       <c r="T42" t="n">
-        <v>575.7127740829909</v>
+        <v>297.6146188964108</v>
       </c>
       <c r="U42" t="n">
-        <v>575.7127740829909</v>
+        <v>297.6146188964108</v>
       </c>
       <c r="V42" t="n">
-        <v>332.633055986625</v>
+        <v>297.5637716462747</v>
       </c>
       <c r="W42" t="n">
-        <v>253.8058954412384</v>
+        <v>28.165202376566</v>
       </c>
       <c r="X42" t="n">
-        <v>253.8058954412384</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Y42" t="n">
         <v>28.165202376566</v>
@@ -7552,40 +7552,40 @@
         <v>28.165202376566</v>
       </c>
       <c r="E43" t="n">
-        <v>126.0984188928531</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064315</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Q43" t="n">
         <v>131.4786083064315</v>
@@ -7646,34 +7646,34 @@
         <v>28.165202376566</v>
       </c>
       <c r="J44" t="n">
-        <v>28.165202376566</v>
+        <v>191.2401764340391</v>
       </c>
       <c r="K44" t="n">
-        <v>152.0604499252467</v>
+        <v>424.1159948082887</v>
       </c>
       <c r="L44" t="n">
-        <v>438.6401754928482</v>
+        <v>472.5031240595005</v>
       </c>
       <c r="M44" t="n">
-        <v>759.5487359874012</v>
+        <v>793.4116845540534</v>
       </c>
       <c r="N44" t="n">
-        <v>1074.953291242241</v>
+        <v>1108.816239808893</v>
       </c>
       <c r="O44" t="n">
-        <v>1349.145592163025</v>
+        <v>1180.629768416385</v>
       </c>
       <c r="P44" t="n">
-        <v>1349.145592163025</v>
+        <v>1180.629768416385</v>
       </c>
       <c r="Q44" t="n">
-        <v>1349.145592163025</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="R44" t="n">
-        <v>1395.0687342909</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T44" t="n">
         <v>1408.2601188283</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.1866295794202</v>
+        <v>178.4065133404519</v>
       </c>
       <c r="C45" t="n">
-        <v>339.1866295794202</v>
+        <v>178.4065133404519</v>
       </c>
       <c r="D45" t="n">
         <v>178.4065133404519</v>
@@ -7752,25 +7752,25 @@
         <v>786.6288459337213</v>
       </c>
       <c r="S45" t="n">
-        <v>786.6288459337213</v>
+        <v>593.2098627525559</v>
       </c>
       <c r="T45" t="n">
-        <v>786.6288459337213</v>
+        <v>593.2098627525559</v>
       </c>
       <c r="U45" t="n">
-        <v>786.6288459337213</v>
+        <v>593.2098627525559</v>
       </c>
       <c r="V45" t="n">
-        <v>543.5491278373554</v>
+        <v>593.1590155024197</v>
       </c>
       <c r="W45" t="n">
-        <v>517.1794294138765</v>
+        <v>323.760446232711</v>
       </c>
       <c r="X45" t="n">
-        <v>517.1794294138765</v>
+        <v>323.760446232711</v>
       </c>
       <c r="Y45" t="n">
-        <v>517.1794294138765</v>
+        <v>323.760446232711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.51704723463742</v>
+        <v>28.165202376566</v>
       </c>
       <c r="C46" t="n">
-        <v>90.51704723463742</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D46" t="n">
-        <v>90.51704723463742</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E46" t="n">
-        <v>90.51704723463742</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F46" t="n">
-        <v>90.51704723463742</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="M46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="N46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="O46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="P46" t="n">
-        <v>126.2871334400507</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Q46" t="n">
         <v>126.2871334400507</v>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>236.183873410836</v>
       </c>
       <c r="M12" t="n">
-        <v>239.5303559843453</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510107</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O12" t="n">
-        <v>120.8337805941225</v>
+        <v>120.8337805941224</v>
       </c>
       <c r="P12" t="n">
-        <v>202.2432037328741</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,16 +9012,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>239.5303559843453</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N15" t="n">
-        <v>220.7454341052055</v>
+        <v>183.5937933051339</v>
       </c>
       <c r="O15" t="n">
-        <v>120.8337805941225</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>167.2528032383454</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>239.5303559843453</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N18" t="n">
-        <v>220.7454341052055</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O18" t="n">
-        <v>120.8337805941225</v>
+        <v>120.8337805941224</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M21" t="n">
-        <v>239.5303559843453</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N21" t="n">
-        <v>137.3025557327316</v>
+        <v>217.791430325294</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>239.5303559843453</v>
+        <v>235.4096856385396</v>
       </c>
       <c r="N24" t="n">
-        <v>222.8620813067175</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681795</v>
+        <v>120.8337805941224</v>
       </c>
       <c r="P24" t="n">
-        <v>120.8043485046934</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.16450411638664</v>
+        <v>57.16450411638682</v>
       </c>
       <c r="C11" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>143.5605897548377</v>
       </c>
       <c r="E11" t="n">
-        <v>54.55617580018946</v>
+        <v>177.2673421742465</v>
       </c>
       <c r="F11" t="n">
         <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9047710614195</v>
+        <v>224.6159374354766</v>
       </c>
       <c r="H11" t="n">
         <v>152.7005992377401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407752</v>
+        <v>55.93811835407753</v>
       </c>
       <c r="V11" t="n">
-        <v>126.6682137217624</v>
+        <v>79.85422245829423</v>
       </c>
       <c r="W11" t="n">
-        <v>115.0502922510042</v>
+        <v>20.9737275643204</v>
       </c>
       <c r="X11" t="n">
         <v>165.5711444073165</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.0739975310602</v>
+        <v>65.36283115700338</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.8756704904437</v>
+        <v>57.16450411638679</v>
       </c>
       <c r="C14" t="n">
-        <v>155.9939274937892</v>
+        <v>33.28276111973229</v>
       </c>
       <c r="D14" t="n">
-        <v>143.5605897548377</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742466</v>
+        <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>86.27651337856685</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354766</v>
+        <v>101.9047710614197</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368311</v>
+        <v>152.7005992377401</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037792</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451859</v>
+        <v>9.124127090609226</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428248</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>18.58421837949302</v>
+        <v>126.6682137217624</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6848939383773</v>
+        <v>143.6848939383772</v>
       </c>
       <c r="X14" t="n">
         <v>165.5711444073165</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.36283115700326</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.714628852932947e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793728.0850244254</v>
+        <v>793728.0850244253</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>705545.5961411677</v>
+      </c>
+      <c r="C2" t="n">
+        <v>705545.5961411679</v>
+      </c>
+      <c r="D2" t="n">
         <v>705545.5961411678</v>
       </c>
-      <c r="C2" t="n">
-        <v>705545.5961411677</v>
-      </c>
-      <c r="D2" t="n">
-        <v>705545.5961411679</v>
-      </c>
       <c r="E2" t="n">
-        <v>607992.0712163828</v>
+        <v>607992.0712163827</v>
       </c>
       <c r="F2" t="n">
         <v>607992.0712163829</v>
       </c>
       <c r="G2" t="n">
-        <v>706974.8390868296</v>
+        <v>706974.8390868292</v>
       </c>
       <c r="H2" t="n">
         <v>706974.8390868293</v>
@@ -26335,22 +26335,22 @@
         <v>706974.8390868292</v>
       </c>
       <c r="J2" t="n">
-        <v>706974.8390868286</v>
+        <v>706974.8390868288</v>
       </c>
       <c r="K2" t="n">
-        <v>706974.8390868283</v>
+        <v>706974.839086829</v>
       </c>
       <c r="L2" t="n">
-        <v>706974.8390868285</v>
+        <v>706974.8390868284</v>
       </c>
       <c r="M2" t="n">
-        <v>706974.8390868298</v>
+        <v>706974.8390868293</v>
       </c>
       <c r="N2" t="n">
-        <v>706974.8390868296</v>
+        <v>706974.8390868297</v>
       </c>
       <c r="O2" t="n">
-        <v>706974.8390868296</v>
+        <v>706974.8390868295</v>
       </c>
       <c r="P2" t="n">
         <v>706974.8390868293</v>
@@ -26375,34 +26375,34 @@
         <v>275420.9947649911</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>101147.8182889624</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155064.5154470555</v>
+        <v>155064.5154470554</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889624</v>
+        <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812929</v>
+        <v>28312.50137812931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.7290905383</v>
+        <v>68757.72909053825</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>451388.1479621753</v>
       </c>
       <c r="E4" t="n">
-        <v>344201.4566840517</v>
+        <v>344201.4566840515</v>
       </c>
       <c r="F4" t="n">
-        <v>344201.4566840515</v>
+        <v>344201.4566840516</v>
       </c>
       <c r="G4" t="n">
+        <v>414704.5356053186</v>
+      </c>
+      <c r="H4" t="n">
         <v>414704.5356053187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>414704.5356053186</v>
       </c>
       <c r="I4" t="n">
         <v>414704.5356053187</v>
@@ -26442,13 +26442,13 @@
         <v>413278.3638748867</v>
       </c>
       <c r="K4" t="n">
-        <v>413278.3638748868</v>
+        <v>413278.3638748867</v>
       </c>
       <c r="L4" t="n">
         <v>413278.3638748868</v>
       </c>
       <c r="M4" t="n">
-        <v>412733.9956987764</v>
+        <v>412733.9956987765</v>
       </c>
       <c r="N4" t="n">
         <v>412733.9956987765</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538859</v>
+        <v>26051.38465538858</v>
       </c>
       <c r="F5" t="n">
         <v>26051.38465538859</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505707</v>
+        <v>36680.62957505706</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505707</v>
+        <v>36680.62957505706</v>
       </c>
       <c r="I5" t="n">
         <v>36680.62957505707</v>
@@ -26494,7 +26494,7 @@
         <v>47579.79330930411</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="L5" t="n">
         <v>47579.79330930412</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220529.8481789925</v>
+        <v>220525.3817947872</v>
       </c>
       <c r="C6" t="n">
-        <v>220529.8481789924</v>
+        <v>220525.3817947874</v>
       </c>
       <c r="D6" t="n">
-        <v>220529.8481789926</v>
+        <v>220525.3817947873</v>
       </c>
       <c r="E6" t="n">
-        <v>-37681.76488804858</v>
+        <v>-37991.0860376437</v>
       </c>
       <c r="F6" t="n">
-        <v>237739.2298769429</v>
+        <v>237429.9087273476</v>
       </c>
       <c r="G6" t="n">
-        <v>154441.8556174914</v>
+        <v>154441.8556174912</v>
       </c>
       <c r="H6" t="n">
-        <v>255589.6739064537</v>
+        <v>255589.6739064536</v>
       </c>
       <c r="I6" t="n">
         <v>255589.6739064534</v>
       </c>
       <c r="J6" t="n">
-        <v>91052.16645558242</v>
+        <v>91052.16645558248</v>
       </c>
       <c r="K6" t="n">
-        <v>246116.6819026374</v>
+        <v>246116.6819026382</v>
       </c>
       <c r="L6" t="n">
-        <v>144968.8636136752</v>
+        <v>144968.8636136751</v>
       </c>
       <c r="M6" t="n">
-        <v>222834.1330182152</v>
+        <v>222834.1330182146</v>
       </c>
       <c r="N6" t="n">
-        <v>251146.6343963442</v>
+        <v>251146.6343963443</v>
       </c>
       <c r="O6" t="n">
         <v>181484.3764592515</v>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>194.2115698873896</v>
+      </c>
+      <c r="F2" t="n">
         <v>194.2115698873897</v>
-      </c>
-      <c r="F2" t="n">
-        <v>194.2115698873896</v>
       </c>
       <c r="G2" t="n">
         <v>320.6463427485926</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="K2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L2" t="n">
         <v>212.9205840662827</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="K3" t="n">
         <v>103.8244619716957</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="F4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="G4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="H4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="I4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="M4" t="n">
-        <v>328.2164562649699</v>
+        <v>328.21645626497</v>
       </c>
       <c r="N4" t="n">
-        <v>328.2164562649699</v>
+        <v>328.21645626497</v>
       </c>
       <c r="O4" t="n">
         <v>352.065029707075</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>126.434772861203</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507961</v>
+        <v>86.48581120507956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.434772861203</v>
+        <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266161</v>
+        <v>35.39062672266164</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390281</v>
+        <v>78.77318255390279</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210513</v>
+        <v>23.84857344210508</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507961</v>
+        <v>86.48581120507956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="E11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="G11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K11" t="n">
-        <v>5.37048276983861</v>
+        <v>5.370482769838553</v>
       </c>
       <c r="L11" t="n">
-        <v>73.83527824152002</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>42.55761115622521</v>
+        <v>44.71928865845128</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>136.2694063923961</v>
+        <v>136.2694063923959</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55996792937719</v>
+        <v>160.2335686686704</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>64.80698515030889</v>
+        <v>116.0698242570147</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>116.5478280992127</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388978542471</v>
@@ -28190,7 +28190,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491251</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
@@ -28220,22 +28220,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V12" t="n">
-        <v>117.9377545413452</v>
+        <v>117.9377545413454</v>
       </c>
       <c r="W12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.2115698873897</v>
+        <v>100.6731197599687</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.2115698873897</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28260,61 +28260,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959906883239</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H13" t="n">
-        <v>194.2115698873897</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I13" t="n">
-        <v>194.2115698873897</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
         <v>119.9013618977274</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L13" t="n">
-        <v>31.44053041360787</v>
+        <v>154.1516967876647</v>
       </c>
       <c r="M13" t="n">
-        <v>147.1780805900284</v>
+        <v>132.8319475006608</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926583</v>
+        <v>138.4992047233227</v>
       </c>
       <c r="O13" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345277</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.1701490686063</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K14" t="n">
-        <v>5.37048276983861</v>
+        <v>128.0816491438954</v>
       </c>
       <c r="L14" t="n">
-        <v>30.04506100792567</v>
+        <v>73.8352782415198</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>39.15968740621527</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>86.34782838981955</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>136.2694063923961</v>
+        <v>16.95616376834848</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937717</v>
       </c>
       <c r="R14" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.0393280236087</v>
+        <v>79.24650446870507</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28424,10 +28424,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I15" t="n">
-        <v>64.8913213847581</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491251</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R15" t="n">
         <v>134.3654897447971</v>
@@ -28457,22 +28457,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V15" t="n">
-        <v>117.9377545413452</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873896</v>
+        <v>143.9934172029547</v>
       </c>
       <c r="X15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873896</v>
+        <v>100.6731197599687</v>
       </c>
     </row>
     <row r="16">
@@ -28485,22 +28485,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>194.2115698873896</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959906883239</v>
       </c>
       <c r="H16" t="n">
-        <v>194.2115698873896</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
         <v>164.7090929584652</v>
@@ -28509,49 +28509,49 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47413857346798</v>
+        <v>189.1853049475249</v>
       </c>
       <c r="L16" t="n">
-        <v>31.44053041360787</v>
+        <v>154.1516967876647</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N16" t="n">
-        <v>93.48455345238645</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O16" t="n">
-        <v>159.5138199599523</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P16" t="n">
-        <v>180.6111333345277</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8163712014149</v>
+        <v>156.383376379548</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>320.6463427485926</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5985821377675</v>
+        <v>288.1030962659639</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K17" t="n">
-        <v>5.37048276983861</v>
+        <v>5.370482769838553</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,22 +28597,22 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>44.7192886584515</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>109.7158569447692</v>
+        <v>13.55824001833902</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937717</v>
       </c>
       <c r="R17" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485926</v>
       </c>
       <c r="T17" t="n">
         <v>320.6463427485926</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.0393280236087</v>
+        <v>54.03932802360886</v>
       </c>
       <c r="C18" t="n">
-        <v>64.80698515030889</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>51.08831973430918</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28664,7 +28664,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491251</v>
+        <v>6.141010788491226</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074019</v>
       </c>
       <c r="S18" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T18" t="n">
-        <v>92.23675554665691</v>
+        <v>106.8639265784447</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872804</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28746,22 +28746,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926583</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O19" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8163712014149</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I20" t="n">
-        <v>320.6463427485926</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K20" t="n">
-        <v>5.37048276983861</v>
+        <v>5.370482769838553</v>
       </c>
       <c r="L20" t="n">
-        <v>73.83527824152002</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>98.77925693779619</v>
+        <v>13.55824001833902</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937719</v>
+        <v>211.2711343034341</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S20" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4191925616721</v>
+        <v>268.315427452291</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.0393280236087</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>57.22933052280044</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074019</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529695</v>
       </c>
       <c r="T21" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276940613373</v>
+        <v>135.2847095075593</v>
       </c>
       <c r="V21" t="n">
-        <v>117.9377545413452</v>
+        <v>117.9377545413454</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>94.60174806541357</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,22 +28983,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926583</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O22" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8163712014149</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I23" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K23" t="n">
-        <v>128.0816491438956</v>
+        <v>5.370482769838553</v>
       </c>
       <c r="L23" t="n">
-        <v>23.02049794106075</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.71928865845132</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833908</v>
+        <v>13.55824001833902</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937719</v>
+        <v>211.2711343034341</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S23" t="n">
-        <v>320.6463427485926</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4191925616721</v>
+        <v>223.5961387938398</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1496882414672</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>36.46114870252151</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29135,10 +29135,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529691</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>113.0049373669359</v>
       </c>
       <c r="U24" t="n">
-        <v>119.7404755389756</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>143.9934172029546</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>94.60174806541369</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599687</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926583</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O25" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8163712014149</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>176.6679225349671</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319845</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,25 +29396,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491251</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>212.9205840662826</v>
       </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
-        <v>4.444550939039175</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X27" t="n">
         <v>212.9205840662826</v>
@@ -29454,31 +29454,31 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J28" t="n">
-        <v>191.6696922568217</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597136</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78803834926583</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O28" t="n">
-        <v>36.8026535858953</v>
+        <v>84.84367088610423</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9205840662826</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R28" t="n">
-        <v>212.9205840662826</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S28" t="n">
         <v>212.9205840662826</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J29" t="n">
+        <v>212.9205840662826</v>
+      </c>
+      <c r="K29" t="n">
+        <v>212.9205840662826</v>
+      </c>
+      <c r="L29" t="n">
+        <v>212.9205840662826</v>
+      </c>
+      <c r="M29" t="n">
+        <v>212.9205840662826</v>
+      </c>
+      <c r="N29" t="n">
+        <v>212.9205840662826</v>
+      </c>
+      <c r="O29" t="n">
+        <v>212.9205840662826</v>
+      </c>
+      <c r="P29" t="n">
         <v>212.920584066282</v>
       </c>
-      <c r="K29" t="n">
-        <v>212.9205840662827</v>
-      </c>
-      <c r="L29" t="n">
-        <v>212.9205840662827</v>
-      </c>
-      <c r="M29" t="n">
-        <v>212.9205840662827</v>
-      </c>
-      <c r="N29" t="n">
-        <v>212.9205840662827</v>
-      </c>
-      <c r="O29" t="n">
-        <v>212.9205840662827</v>
-      </c>
-      <c r="P29" t="n">
-        <v>212.9205840662827</v>
-      </c>
       <c r="Q29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>140.4978328663504</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>9.542347583391539</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
@@ -29642,22 +29642,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="31">
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29694,22 +29694,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47413857346797</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L31" t="n">
         <v>31.44053041360786</v>
       </c>
       <c r="M31" t="n">
-        <v>105.9409842606791</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78803834926581</v>
+        <v>59.37287691266133</v>
       </c>
       <c r="O31" t="n">
         <v>36.80265358589529</v>
       </c>
       <c r="P31" t="n">
-        <v>212.9205840662827</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8163712014149</v>
@@ -29718,25 +29718,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="32">
@@ -29785,7 +29785,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662814</v>
       </c>
       <c r="P32" t="n">
         <v>212.9205840662827</v>
@@ -29794,7 +29794,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="R32" t="n">
-        <v>212.920584066282</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="S32" t="n">
         <v>212.9205840662827</v>
@@ -29828,13 +29828,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>129.4338995199928</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,13 +29870,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
         <v>212.9205840662827</v>
@@ -29885,16 +29885,16 @@
         <v>212.9205840662827</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.9205840662827</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>10.58556172752989</v>
       </c>
     </row>
     <row r="34">
@@ -29937,22 +29937,22 @@
         <v>31.44053041360786</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597134</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="N34" t="n">
-        <v>212.9205840662827</v>
+        <v>54.12331596385982</v>
       </c>
       <c r="O34" t="n">
         <v>36.80265358589529</v>
       </c>
       <c r="P34" t="n">
-        <v>97.26210839397362</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="S34" t="n">
         <v>212.9205840662827</v>
@@ -30004,22 +30004,22 @@
         <v>248.3112107889443</v>
       </c>
       <c r="I35" t="n">
+        <v>240.5985821377675</v>
+      </c>
+      <c r="J35" t="n">
+        <v>103.9288296422371</v>
+      </c>
+      <c r="K35" t="n">
         <v>248.3112107889443</v>
       </c>
-      <c r="J35" t="n">
-        <v>175.7594526587826</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.370482769838588</v>
-      </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>244.6649772971284</v>
       </c>
       <c r="N35" t="n">
-        <v>248.3112107889443</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>248.3112107889443</v>
@@ -30028,7 +30028,7 @@
         <v>248.3112107889443</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.3112107889443</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R35" t="n">
         <v>248.3112107889443</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30080,7 +30080,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
-        <v>3.284404459893054</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I36" t="n">
         <v>107.1669324054735</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3112107889443</v>
+        <v>188.7353337310151</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,7 +30168,7 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K37" t="n">
-        <v>150.4906486454308</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L37" t="n">
         <v>31.44053041360786</v>
@@ -30180,7 +30180,7 @@
         <v>15.78803834926581</v>
       </c>
       <c r="O37" t="n">
-        <v>36.80265358589529</v>
+        <v>107.8626210002361</v>
       </c>
       <c r="P37" t="n">
         <v>57.89996696047066</v>
@@ -30192,7 +30192,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
@@ -30241,10 +30241,10 @@
         <v>248.3112107889443</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5985821377675</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J38" t="n">
-        <v>79.24533665338483</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K38" t="n">
         <v>248.3112107889443</v>
@@ -30253,28 +30253,28 @@
         <v>248.3112107889443</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>112.4239124857501</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>248.3112107889443</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>248.3112107889443</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.55996792937718</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="R38" t="n">
-        <v>248.3112107889443</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S38" t="n">
         <v>248.3112107889443</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4191925616721</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="U38" t="n">
         <v>248.3112107889443</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,7 +30308,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30323,7 +30323,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
-        <v>109.9642637739357</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T39" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>112.1820556879343</v>
       </c>
     </row>
     <row r="40">
@@ -30384,7 +30384,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>229.1991603226735</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30402,7 +30402,7 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J40" t="n">
-        <v>119.9013618977274</v>
+        <v>203.9178719696903</v>
       </c>
       <c r="K40" t="n">
         <v>66.47413857346797</v>
@@ -30487,31 +30487,31 @@
         <v>240.5985821377675</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="M41" t="n">
-        <v>143.8418283113349</v>
-      </c>
       <c r="N41" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="P41" t="n">
-        <v>13.55824001833905</v>
+        <v>214.4560158370966</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.55996792937718</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="R41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2739512919082</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4191925616721</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U41" t="n">
         <v>240.5985821377675</v>
@@ -30584,10 +30584,10 @@
         <v>6.14101078849124</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>50.53310945943659</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,16 +30596,16 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="W42" t="n">
-        <v>188.6656946370788</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30624,10 +30624,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5985821377675</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>144.3614169796369</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6959906883239</v>
@@ -30660,7 +30660,7 @@
         <v>57.89996696047066</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8163712014149</v>
+        <v>231.1733468881477</v>
       </c>
       <c r="R43" t="n">
         <v>203.2148443806685</v>
@@ -30718,13 +30718,13 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J44" t="n">
-        <v>75.87638612011796</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="K44" t="n">
-        <v>130.5171974654756</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>240.5985821377675</v>
@@ -30733,13 +30733,13 @@
         <v>240.5985821377675</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5985821377675</v>
+        <v>36.1755798011078</v>
       </c>
       <c r="P44" t="n">
         <v>13.55824001833901</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.55996792937715</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="R44" t="n">
         <v>240.5985821377675</v>
@@ -30748,7 +30748,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4191925616721</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U44" t="n">
         <v>240.5985821377675</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5376225615539738</v>
+        <v>32.85010083432923</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30824,7 +30824,7 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.947921920714</v>
@@ -30833,10 +30833,10 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.5985821377675</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>204.827390895812</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H46" t="n">
         <v>165.7818614221724</v>
@@ -30897,7 +30897,7 @@
         <v>57.89996696047065</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8163712014149</v>
+        <v>225.9294328817025</v>
       </c>
       <c r="R46" t="n">
         <v>203.2148443806685</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722964</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O11" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983298</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243504</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M12" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514254</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057558</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901142</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L14" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722964</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O14" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983298</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243504</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M15" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514254</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057558</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901142</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L17" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722964</v>
       </c>
       <c r="M17" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O17" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983298</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243504</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M18" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514254</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057558</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901142</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L20" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722964</v>
       </c>
       <c r="M20" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O20" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983298</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243504</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M21" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734748</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514254</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057558</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901142</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L23" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722964</v>
       </c>
       <c r="M23" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O23" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983298</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243504</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M24" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734748</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514254</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057558</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901142</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L26" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722964</v>
       </c>
       <c r="M26" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O26" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983298</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243504</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615017</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M27" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734748</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514254</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057558</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901142</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>122.711166374057</v>
+        <v>48.87588813253707</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784153</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N11" t="n">
-        <v>120.5494888718307</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P11" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>71.67360073929322</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7571625941459</v>
+        <v>115.6364922483404</v>
       </c>
       <c r="M12" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N12" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>81.43885522818069</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.59464922242157</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35556,13 +35556,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.51557919906575</v>
       </c>
       <c r="H13" t="n">
-        <v>28.4297084652173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.50247692892449</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="M13" t="n">
-        <v>122.711166374057</v>
+        <v>108.3650332846895</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.3537778671914</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="L14" t="n">
-        <v>78.92094914046268</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="M14" t="n">
-        <v>83.55147896784153</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99187771560553</v>
+        <v>77.9918777156056</v>
       </c>
       <c r="O14" t="n">
-        <v>122.711166374057</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P14" t="n">
-        <v>122.711166374057</v>
+        <v>3.397923750009458</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L15" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M15" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N15" t="n">
-        <v>118.5904960282518</v>
+        <v>81.43885522818033</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398587</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,22 +35781,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.75438891541725</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.02891963667895</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.28468766894301</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>28.42970846521724</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>77.69651510312062</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.56700517813308</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>47.50451412819637</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253701</v>
+        <v>48.87588813253707</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784153</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N17" t="n">
-        <v>122.711166374057</v>
+        <v>77.9918777156056</v>
       </c>
       <c r="O17" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P17" t="n">
-        <v>96.15761692643017</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.37239145668447</v>
       </c>
       <c r="T17" t="n">
         <v>98.22715018692057</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.26828800158317</v>
+        <v>35.14761765577764</v>
       </c>
       <c r="L18" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M18" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N18" t="n">
-        <v>118.5904960282518</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.04776061082512</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>122.711166374057</v>
+        <v>48.87588813253707</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784153</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N20" t="n">
-        <v>77.99187771560553</v>
+        <v>77.9918777156056</v>
       </c>
       <c r="O20" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P20" t="n">
-        <v>85.22101691945711</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>45.89623489061898</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>70.49665450712554</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N21" t="n">
-        <v>35.14761765577796</v>
+        <v>115.6364922483404</v>
       </c>
       <c r="O21" t="n">
-        <v>122.711166374057</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,37 +36358,37 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>71.89638607359777</v>
+        <v>48.87588813253707</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784153</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560553</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O23" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.37239145668445</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.176946232167762</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.49665450712554</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L24" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M24" t="n">
-        <v>122.711166374057</v>
+        <v>118.5904960282514</v>
       </c>
       <c r="N24" t="n">
-        <v>120.7071432297638</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O24" t="n">
-        <v>122.711166374057</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K26" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L26" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341241</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2839220505201</v>
+        <v>249.2839220505202</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889294</v>
+        <v>18.709014178893</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158321</v>
       </c>
       <c r="L27" t="n">
         <v>119.7571625941459</v>
@@ -36683,13 +36683,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N27" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O27" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.76833035909431</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,22 +36759,22 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4536698503113</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>48.04101730020897</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0206171058119</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.705739685614132</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.044197946164</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5501012964441</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988197</v>
+        <v>261.7964721988196</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4720630341243</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N29" t="n">
         <v>290.9124617818882</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505202</v>
+        <v>249.2839220505201</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479429</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889304</v>
+        <v>18.70901417889295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.46340309431025</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4464454928146</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>81.4740700447078</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>43.58483856339551</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.020617105812</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>296.4720630341243</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818882</v>
+        <v>290.9124617818883</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505202</v>
+        <v>249.2839220505189</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479437</v>
       </c>
       <c r="Q32" t="n">
         <v>124.3606161369055</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889234</v>
+        <v>18.70901417889307</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,22 +37233,22 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.4536698503114</v>
       </c>
       <c r="N34" t="n">
-        <v>197.1325457170169</v>
+        <v>38.33527761459401</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39.36214143350296</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.705739685614249</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176772</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>99.88306653866462</v>
+        <v>28.05244352211913</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.9407280191057</v>
       </c>
       <c r="L35" t="n">
         <v>48.87588813253703</v>
       </c>
       <c r="M35" t="n">
-        <v>83.55147896784158</v>
+        <v>328.21645626497</v>
       </c>
       <c r="N35" t="n">
-        <v>326.3030885045499</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O35" t="n">
         <v>284.6745487731818</v>
@@ -37324,7 +37324,7 @@
         <v>234.7529707706053</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.7512428595671</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>54.09964090155465</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>84.01651007196286</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>71.05996741434082</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.95654265762203</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.712628651176772</v>
       </c>
       <c r="J38" t="n">
-        <v>3.368950533266849</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>242.9407280191057</v>
@@ -37549,28 +37549,28 @@
         <v>297.1870989214813</v>
       </c>
       <c r="M38" t="n">
-        <v>83.55147896784158</v>
+        <v>195.9753914535917</v>
       </c>
       <c r="N38" t="n">
         <v>77.99187771560555</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731818</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P38" t="n">
         <v>234.7529707706053</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>159.7512428595671</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155465</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>21.03725949703611</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.89201822727222</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37680,25 +37680,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>84.01651007196286</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703046</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M41" t="n">
-        <v>227.3933072791765</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N41" t="n">
-        <v>318.590459853373</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O41" t="n">
         <v>276.961920122005</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>200.8977758187576</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
         <v>46.38701225037785</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.32463084585931</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.9224409255425</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.434534761190281</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.7221960176496</v>
       </c>
       <c r="K44" t="n">
-        <v>125.1467146956371</v>
+        <v>235.228099367929</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4744702703046</v>
+        <v>48.87588813253709</v>
       </c>
       <c r="M44" t="n">
         <v>324.1500611056091</v>
@@ -38029,13 +38029,13 @@
         <v>318.5904598533731</v>
       </c>
       <c r="O44" t="n">
-        <v>276.961920122005</v>
+        <v>72.53891778534535</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>152.0386142083904</v>
       </c>
       <c r="R44" t="n">
         <v>46.38701225037786</v>
@@ -38044,7 +38044,7 @@
         <v>13.32463084585931</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.9816614727994</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>36.13140020748813</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>99.11306168028754</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
